--- a/biology/Zoologie/Conure_de_Caroline/Conure_de_Caroline.xlsx
+++ b/biology/Zoologie/Conure_de_Caroline/Conure_de_Caroline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conuropsis carolinensis
 La Conure de Caroline ou Conure à tête jaune (Conuropsis carolinensis) était une espèce d'oiseau appartenant à la famille des Psittacidae.
@@ -512,7 +524,9 @@
           <t>Habitat et comportement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un perroquet ayant la capacité de vivre aux États-Unis est en soi quelque chose de singulier, et il existe d’étonnantes observations de cette espèce volant au-dessus de champs couverts de neige. À l’époque de son abondance, l’espèce aimait les plaines boisées et montrait une préférence pour les terrains proches de l’eau. Elle vivait principalement dans les platanes, cyprès ou érables, et se perchait pour la nuit dans des moignons de branches creux à l’intérieur desquels les individus s’entassaient et s’agglutinaient. À l’aube, les oiseaux s’envolaient jusqu’aux branches supérieures des arbres et ensuite restaient tranquilles la plus grande partie de la journée. La fin de l’après-midi et le début de soirée voyaient de fortes poussées d’activité. Quand les oiseaux décidaient de se nourrir, ils s’envolaient rapidement vers les sites d’alimentation choisis et arrivaient dans un flamboiement de couleurs.
 </t>
@@ -543,7 +557,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En ce qui concerne la nidification, les descriptions divergent. Quelques observations font état de plusieurs conures pondant leurs œufs en commun dans des troncs d’arbres, alors que d’autres indiquent que les nids fragiles, composés de brindilles, étaient placés à la fourche des branches.
 On sait peu de choses des habitudes de nidification de ces conures. Elles avaient la réputation d’être des parents peu attentifs et le taux d’échec était assez élevé.
@@ -575,7 +591,9 @@
           <t>Historique de sa disparition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout comme son compatriote le pigeon migrateur, la Conure de Caroline passa en l’espace d’un siècle d’effectifs abondants à quelques individus, pour finalement s'éteindre. Cette espèce fut un temps considérée comme nuisible, avec ses mœurs alimentaires grégaires, qui s’exerçaient à travers le Sud et l’Est des États-Unis. Elle ruinait les vergers, pillait les champs de maïs, détruisait les récoltes de grains, et provoqua ainsi la colère de l’homme. Il semble que l’espèce était peu habile à se défendre. Quand des individus étaient tirés, leurs compagnons volaient en criant au-dessus des morts et des blessés et finalement se posaient parmi leurs camarades abattus, devenant ainsi des cibles faciles.
 Durant la plus grande partie du XIXe siècle, la Conure de Caroline fut un oiseau particulièrement commun. Même jusque dans les années 1880 on pouvait la trouver en abondance. Malgré tout, quelques années après, l’espèce ne pouvait plus guère être rencontrée dans la nature.
